--- a/data/georgia_census/shida-qartli/gori/age_dependency.xlsx
+++ b/data/georgia_census/shida-qartli/gori/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B57CBC2-D80D-4703-A4E9-C6A44DE666E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B153F58-C1D1-40A5-8224-274E257F9705}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20E5A4EB-1DE8-4067-84A1-DE7E1113941F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AD2752-235C-457C-A529-49590F3C2B64}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E225176-E0B8-4FD7-A6B1-7A74E345EA23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AC1AAB-CB93-4D1C-9E17-34007DBBE1AC}"/>
 </file>